--- a/Project Outputs for CMTestBoard/CMTestBoard2.xlsx
+++ b/Project Outputs for CMTestBoard/CMTestBoard2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\CMTestBoard\Project Outputs for CMTestBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dough\Documents\RPL Projects\ComputeModTestBoard\CMTestBoard\Project Outputs for CMTestBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EADE9732-8178-4E00-ABBF-1287C944042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101DFB4-70BF-407E-9D58-A965964CB8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="540" windowWidth="19032" windowHeight="11820" xr2:uid="{8EF2E297-8817-47DB-92E5-61A971F27863}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19032" windowHeight="11820" xr2:uid="{8EF2E297-8817-47DB-92E5-61A971F27863}"/>
   </bookViews>
   <sheets>
     <sheet name="CMTestBoard2" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
   <si>
     <t>Comment</t>
   </si>
@@ -280,21 +280,6 @@
     <t>CMP-2000-05419-1</t>
   </si>
   <si>
-    <t>DMG1012T-7</t>
-  </si>
-  <si>
-    <t>N-Channel Enhancement Mode MOSFET, 20 V, 630 mA, -55 to 150 degC, 3-Pin SOT23, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>Q401, Q402</t>
-  </si>
-  <si>
-    <t>DIOD-SOT523-3_V</t>
-  </si>
-  <si>
-    <t>CMP-2000-07450-1</t>
-  </si>
-  <si>
     <t>0402WGF1003TCE</t>
   </si>
   <si>
@@ -451,9 +436,6 @@
     <t>MOSFET, N CH, 60V, 0.2A</t>
   </si>
   <si>
-    <t>T301, T302, T401</t>
-  </si>
-  <si>
     <t>SC70-3</t>
   </si>
   <si>
@@ -590,6 +572,9 @@
   </si>
   <si>
     <t>CMP-18717-000014-1</t>
+  </si>
+  <si>
+    <t>T301, T302, T401, T402, T403</t>
   </si>
 </sst>
 </file>
@@ -968,7 +953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F18752-1ED1-4FC8-8C5A-4D446FDB3AF3}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1354,40 +1341,28 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1395,19 +1370,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
@@ -1415,19 +1390,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
@@ -1435,19 +1410,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1455,19 +1430,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1475,19 +1450,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -1495,19 +1470,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1515,19 +1490,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
@@ -1535,19 +1510,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1555,19 +1530,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1575,19 +1550,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1595,19 +1570,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -1615,19 +1590,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1635,19 +1610,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -1655,19 +1630,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F35" s="1">
         <v>8</v>
@@ -1675,19 +1650,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1695,19 +1670,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -1715,19 +1690,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -1735,19 +1710,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -1755,19 +1730,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -1775,19 +1750,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -1795,19 +1770,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
@@ -1815,19 +1790,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
